--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="74">
   <si>
     <t>Nome</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 8/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/8/2022</t>
   </si>
   <si>
     <t>nrworkshoop</t>
@@ -307,19 +304,19 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -494,10 +491,10 @@
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>63</v>
@@ -532,10 +529,10 @@
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
@@ -570,10 +567,10 @@
         <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>63</v>
@@ -646,10 +643,10 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>63</v>
@@ -722,10 +719,10 @@
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
@@ -760,10 +757,10 @@
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
@@ -798,7 +795,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="0">
         <v>2</v>
@@ -836,10 +833,10 @@
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>63</v>
@@ -874,10 +871,10 @@
         <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
@@ -988,10 +985,10 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -1064,10 +1061,10 @@
         <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -1140,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H23" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -1216,10 +1213,10 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -1254,10 +1251,10 @@
         <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H26" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -210,16 +210,16 @@
     <t>Data</t>
   </si>
   <si>
+    <t xml:space="preserve">  9/8/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8/8/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8/11/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11/9/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8/11/2022</t>
   </si>
   <si>
     <t>nrworkshoop</t>
@@ -342,7 +342,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>63</v>
@@ -415,7 +415,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
@@ -491,10 +491,10 @@
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>63</v>
@@ -529,7 +529,7 @@
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="0">
         <v>2</v>
@@ -567,10 +567,10 @@
         <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>63</v>
@@ -605,7 +605,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
@@ -643,7 +643,7 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="0">
         <v>2</v>
@@ -760,7 +760,7 @@
         <v>65</v>
       </c>
       <c r="H13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
@@ -795,7 +795,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" s="0">
         <v>2</v>
@@ -871,7 +871,7 @@
         <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -909,10 +909,10 @@
         <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H18" s="0">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="0">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>65</v>
       </c>
       <c r="H21" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -1099,7 +1099,7 @@
         <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H22" s="0">
         <v>2</v>
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -1213,7 +1213,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H27" s="0">
         <v>2</v>
@@ -1330,7 +1330,7 @@
         <v>65</v>
       </c>
       <c r="H28" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -210,16 +210,16 @@
     <t>Data</t>
   </si>
   <si>
+    <t xml:space="preserve"> 11/9/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8/11/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">  9/8/2022</t>
   </si>
   <si>
     <t xml:space="preserve">  8/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8/11/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/9/2022</t>
   </si>
   <si>
     <t>nrworkshoop</t>
@@ -342,7 +342,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>63</v>
@@ -380,7 +380,7 @@
         <v>66</v>
       </c>
       <c r="H3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>63</v>
@@ -415,7 +415,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
@@ -491,10 +491,10 @@
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>63</v>
@@ -529,10 +529,10 @@
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>63</v>
@@ -567,10 +567,10 @@
         <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>63</v>
@@ -605,10 +605,10 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>63</v>
@@ -643,7 +643,7 @@
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
@@ -684,7 +684,7 @@
         <v>66</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -719,7 +719,7 @@
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="0">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="0">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>66</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>63</v>
@@ -871,7 +871,7 @@
         <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
@@ -909,7 +909,7 @@
         <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="0">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H18" s="0">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="0">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>65</v>
       </c>
       <c r="H21" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -1099,7 +1099,7 @@
         <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H22" s="0">
         <v>2</v>
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -1178,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="H24" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -1216,7 +1216,7 @@
         <v>65</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H27" s="0">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
@@ -51,64 +51,55 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>PARQUE DE GORONGOSA</t>
+  </si>
+  <si>
     <t>Funcaoposicao</t>
   </si>
   <si>
+    <t>TECNICO DE POUPANCA</t>
+  </si>
+  <si>
+    <t>TECNICO DE CAFE</t>
+  </si>
+  <si>
+    <t>SUPERVISORA DE ARTESANATO</t>
+  </si>
+  <si>
     <t>TECNICO DO CAMPO</t>
   </si>
   <si>
-    <t>TENICO</t>
-  </si>
-  <si>
-    <t>TECNICO</t>
-  </si>
-  <si>
-    <t>TECNICA</t>
-  </si>
-  <si>
     <t>Contacto</t>
   </si>
   <si>
-    <t>848226339</t>
-  </si>
-  <si>
-    <t>847233663</t>
+    <t/>
   </si>
   <si>
     <t>869210890</t>
   </si>
   <si>
-    <t>863019855</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
+    <t xml:space="preserve"> 11/9/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9/8/2022</t>
+  </si>
+  <si>
     <t>10/21/2022</t>
   </si>
   <si>
-    <t>10/22/2022</t>
-  </si>
-  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
     <t>photovoice</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>apresentacao_photovoice</t>
   </si>
   <si>
     <t>Contacto2</t>
-  </si>
-  <si>
-    <t>861589157</t>
-  </si>
-  <si>
-    <t>84038571</t>
   </si>
   <si>
     <t>Sessoes</t>
@@ -175,13 +166,13 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -190,16 +181,16 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -213,28 +204,28 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L2" s="0">
         <v>4</v>
@@ -254,28 +245,28 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L3" s="0">
         <v>4</v>
@@ -292,13 +283,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -307,16 +298,16 @@
         <v>23</v>
       </c>
       <c r="H4" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -339,25 +330,25 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L5" s="0">
         <v>4</v>
@@ -377,28 +368,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L6" s="0">
         <v>4</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Nome</t>
   </si>
@@ -57,39 +57,45 @@
     <t>Funcaoposicao</t>
   </si>
   <si>
-    <t>TECNICO DE POUPANCA</t>
+    <t>TECNICO</t>
+  </si>
+  <si>
+    <t>TECNICO DO CAMPO</t>
+  </si>
+  <si>
+    <t>SUPERVISORA DE ARTESANATO</t>
   </si>
   <si>
     <t>TECNICO DE CAFE</t>
   </si>
   <si>
-    <t>SUPERVISORA DE ARTESANATO</t>
-  </si>
-  <si>
-    <t>TECNICO DO CAMPO</t>
-  </si>
-  <si>
     <t>Contacto</t>
   </si>
   <si>
+    <t>845123123</t>
+  </si>
+  <si>
+    <t>848226339</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>869210890</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
+    <t>10/22/2022</t>
+  </si>
+  <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9/8/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11/9/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">  9/8/2022</t>
-  </si>
-  <si>
-    <t>10/21/2022</t>
-  </si>
-  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
@@ -100,6 +106,12 @@
   </si>
   <si>
     <t>Contacto2</t>
+  </si>
+  <si>
+    <t>863033655</t>
+  </si>
+  <si>
+    <t>841589157</t>
   </si>
   <si>
     <t>Sessoes</t>
@@ -172,25 +184,25 @@
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -204,7 +216,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -213,19 +225,19 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L2" s="0">
         <v>4</v>
@@ -245,28 +257,28 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L3" s="0">
         <v>4</v>
@@ -292,22 +304,22 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -327,28 +339,28 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" s="0">
         <v>4</v>
@@ -371,25 +383,25 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="0">
         <v>4</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -57,45 +57,48 @@
     <t>Funcaoposicao</t>
   </si>
   <si>
-    <t>TECNICO</t>
+    <t>TECNICO DE POUPANCA</t>
+  </si>
+  <si>
+    <t>TECNICO DE CAFE</t>
+  </si>
+  <si>
+    <t>TENICO</t>
   </si>
   <si>
     <t>TECNICO DO CAMPO</t>
   </si>
   <si>
-    <t>SUPERVISORA DE ARTESANATO</t>
-  </si>
-  <si>
-    <t>TECNICO DE CAFE</t>
+    <t>TECNICA</t>
   </si>
   <si>
     <t>Contacto</t>
   </si>
   <si>
-    <t>845123123</t>
-  </si>
-  <si>
-    <t>848226339</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>847233663</t>
+  </si>
+  <si>
+    <t>869210890</t>
+  </si>
+  <si>
+    <t>863019855</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
+    <t xml:space="preserve">  9/8/2022</t>
+  </si>
+  <si>
     <t>10/22/2022</t>
   </si>
   <si>
     <t>10/21/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">  9/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/9/2022</t>
-  </si>
-  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
@@ -108,10 +111,7 @@
     <t>Contacto2</t>
   </si>
   <si>
-    <t>863033655</t>
-  </si>
-  <si>
-    <t>841589157</t>
+    <t>84038571</t>
   </si>
   <si>
     <t>Sessoes</t>
@@ -181,22 +181,22 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>33</v>
@@ -216,28 +216,28 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0">
         <v>4</v>
@@ -257,7 +257,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -266,19 +266,19 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L3" s="0">
         <v>4</v>
@@ -298,7 +298,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -307,19 +307,19 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -339,28 +339,28 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="0">
         <v>4</v>
@@ -380,28 +380,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L6" s="0">
         <v>4</v>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>Nome</t>
   </si>
@@ -21,24 +21,48 @@
     <t>AFONSO BINGALA JONE</t>
   </si>
   <si>
+    <t>ANA BERTA R MLAMBO</t>
+  </si>
+  <si>
     <t>ANTONIO AGOSTINHO JOAO NOBRE</t>
   </si>
   <si>
+    <t>CARLOS JOAQUIM JEQUE</t>
+  </si>
+  <si>
+    <t>CONTRIDO MUARRAMURSSA</t>
+  </si>
+  <si>
+    <t>ELINA ISAQUE DELANE</t>
+  </si>
+  <si>
     <t>FLORINDA NETO</t>
   </si>
   <si>
+    <t>JOSE ALBINO VEREMOS CHIMOIO</t>
+  </si>
+  <si>
     <t>JOSSEFO CELESTINO SALIVA</t>
   </si>
   <si>
     <t>JULEIDA ZULFA CARLOS</t>
   </si>
   <si>
+    <t>SAIMONE MORAN</t>
+  </si>
+  <si>
+    <t>TEODORO BOMBA</t>
+  </si>
+  <si>
     <t>Regiao</t>
   </si>
   <si>
     <t>GORONGOSA</t>
   </si>
   <si>
+    <t>CHIMANIMANI</t>
+  </si>
+  <si>
     <t>Sexo</t>
   </si>
   <si>
@@ -51,52 +75,91 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
+    <t>PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
     <t>PARQUE DE GORONGOSA</t>
   </si>
   <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
     <t>Funcaoposicao</t>
   </si>
   <si>
-    <t>TECNICO DE POUPANCA</t>
+    <t>TECNICO DO CAMPO</t>
+  </si>
+  <si>
+    <t>COORDENADOR</t>
+  </si>
+  <si>
+    <t>TENICO</t>
+  </si>
+  <si>
+    <t>TECNICO</t>
+  </si>
+  <si>
+    <t>OFICIAL DE DESENVOLVIMENTO COMUNITARIO</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t>SUPERVISORA DE ARTESANATO</t>
+  </si>
+  <si>
+    <t>CHEFREP LFACT ECONOMICAS</t>
   </si>
   <si>
     <t>TECNICO DE CAFE</t>
   </si>
   <si>
-    <t>TENICO</t>
-  </si>
-  <si>
-    <t>TECNICO DO CAMPO</t>
-  </si>
-  <si>
-    <t>TECNICA</t>
+    <t>OFICIAL DE APICULTURA</t>
+  </si>
+  <si>
+    <t>PESQUISA E DESENVOLVIMENTO PFNM</t>
   </si>
   <si>
     <t>Contacto</t>
   </si>
   <si>
+    <t>848226339</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>847233663</t>
-  </si>
-  <si>
-    <t>869210890</t>
-  </si>
-  <si>
-    <t>863019855</t>
+    <t>869210850</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
+  </si>
+  <si>
+    <t>10/22/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8/8/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">  9/8/2022</t>
   </si>
   <si>
-    <t>10/22/2022</t>
-  </si>
-  <si>
-    <t>10/21/2022</t>
+    <t>10/18/2022</t>
   </si>
   <si>
     <t>nrworkshoop</t>
@@ -111,7 +174,10 @@
     <t>Contacto2</t>
   </si>
   <si>
-    <t>84038571</t>
+    <t>861589157</t>
+  </si>
+  <si>
+    <t>846243460</t>
   </si>
   <si>
     <t>Sessoes</t>
@@ -161,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -169,40 +235,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -210,34 +276,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L2" s="0">
         <v>4</v>
@@ -251,34 +317,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0">
         <v>4</v>
@@ -292,34 +358,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -333,34 +399,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H5" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L5" s="0">
         <v>4</v>
@@ -374,39 +440,326 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="0">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="0">
+        <v>4</v>
+      </c>
+      <c r="M6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="0">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="0">
+        <v>4</v>
+      </c>
+      <c r="M7" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="0">
+        <v>4</v>
+      </c>
+      <c r="M8" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="0">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="0">
+        <v>4</v>
+      </c>
+      <c r="M9" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="0">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="0">
+        <v>4</v>
+      </c>
+      <c r="M10" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="0">
+        <v>4</v>
+      </c>
+      <c r="M11" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="0">
+        <v>4</v>
+      </c>
+      <c r="M12" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="0">
-        <v>4</v>
-      </c>
-      <c r="M6" s="0">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="0">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="0">
+        <v>4</v>
+      </c>
+      <c r="M13" s="0">
         <v>4</v>
       </c>
     </row>

--- a/parceiros_present.xlsx
+++ b/parceiros_present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -87,16 +87,16 @@
     <t>UNIZAMBEZE</t>
   </si>
   <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
     <t>PARQUE DE GORONGOSA</t>
   </si>
   <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
     <t>Funcaoposicao</t>
   </si>
   <si>
-    <t>TECNICO DO CAMPO</t>
+    <t>TECNICO</t>
   </si>
   <si>
     <t>COORDENADOR</t>
@@ -105,18 +105,12 @@
     <t>TENICO</t>
   </si>
   <si>
-    <t>TECNICO</t>
-  </si>
-  <si>
     <t>OFICIAL DE DESENVOLVIMENTO COMUNITARIO</t>
   </si>
   <si>
     <t>DOCENTE</t>
   </si>
   <si>
-    <t>SUPERVISORA DE ARTESANATO</t>
-  </si>
-  <si>
     <t>CHEFREP LFACT ECONOMICAS</t>
   </si>
   <si>
@@ -132,36 +126,36 @@
     <t>Contacto</t>
   </si>
   <si>
+    <t>845123123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>848226339</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>869210850</t>
+    <t>847233663</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>10/21/2022</t>
+    <t>10/22/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8/8/2022</t>
   </si>
   <si>
     <t>10/20/2022</t>
   </si>
   <si>
-    <t>10/22/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8/8/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9/8/2022</t>
-  </si>
-  <si>
     <t>10/18/2022</t>
   </si>
   <si>
+    <t xml:space="preserve"> 11/9/2022</t>
+  </si>
+  <si>
     <t>nrworkshoop</t>
   </si>
   <si>
@@ -174,10 +168,10 @@
     <t>Contacto2</t>
   </si>
   <si>
+    <t>863033655</t>
+  </si>
+  <si>
     <t>861589157</t>
-  </si>
-  <si>
-    <t>846243460</t>
   </si>
   <si>
     <t>Sessoes</t>
@@ -247,28 +241,28 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -288,22 +282,22 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" s="0">
         <v>4</v>
@@ -329,22 +323,22 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0">
         <v>4</v>
@@ -373,19 +367,19 @@
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0">
         <v>4</v>
@@ -408,10 +402,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -420,13 +414,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L5" s="0">
         <v>4</v>
@@ -449,10 +443,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -461,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" s="0">
         <v>4</v>
@@ -490,25 +484,25 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" s="0">
         <v>4</v>
@@ -528,28 +522,28 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="0">
         <v>4</v>
@@ -569,28 +563,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" s="0">
         <v>4</v>
@@ -610,28 +604,28 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L10" s="0">
         <v>4</v>
@@ -651,28 +645,28 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L11" s="0">
         <v>4</v>
@@ -695,25 +689,25 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" s="0">
         <v>4</v>
@@ -736,25 +730,25 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L13" s="0">
         <v>4</v>
